--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\InterfaceAuto\data\Intelligent_mediation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\InterfaceAuto\server\Intelligent_mediation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF923C7-6208-44C1-BB9E-9FE459CB65ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E697D63-A7BA-4AC2-AA4D-C0AB9BB6D934}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="307380" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="309015" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="218">
   <si>
     <t>Run</t>
   </si>
@@ -1077,6 +1077,20 @@
 %data%disputeType[=]%case1_input%disputeType&amp;transfer[disputeType]
 %data%mediationResult[=]&lt;case6,Input,mediationResult,transfer[mediationResult]&gt;
 %data%respondentIds[=]&lt;case5,Res,data.respondentIds&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>files=data\苏海峰身份证.jpg
+type=int(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.address[=]安徽省天长市千秋新村三巷10号
+data.age[=]int(30)
+data.id[=]341181198809150011
+data.name[=]苏海峰
+data.nation[=]汉
+data.sex[=]男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1414,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247054AC-4A85-4F3A-AC0A-7852403F80C7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1828,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1926,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469935D5-C75B-4C0A-9688-398828BDC568}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2023,10 +2037,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
@@ -2302,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094BE1B7-1080-4268-BDCA-ADBADF076D4C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2399,10 +2413,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
@@ -2578,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8245F7F0-F11E-42FD-BE73-398F082B626B}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2745,10 +2759,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
@@ -2836,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20760" windowHeight="11610" activeTab="2"/>
+    <workbookView windowWidth="17565" windowHeight="10455" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -748,13 +748,13 @@
     <t>queryCountWithCase</t>
   </si>
   <si>
-    <t>data.total[!=]int(0)</t>
+    <t>mediatorId=440104Z20190000</t>
+  </si>
+  <si>
+    <t>queryForCaseCount</t>
   </si>
   <si>
     <t>caseCheckID=3b5185a77f06bb9e186e91bbf5028a83</t>
-  </si>
-  <si>
-    <t>data.caseId[=]&lt;caseCheckID&gt;</t>
   </si>
   <si>
     <t>非必选传参</t>
@@ -768,14 +768,7 @@
 warningGrage=int(0)</t>
   </si>
   <si>
-    <t>data[!=][]</t>
-  </si>
-  <si>
     <t>必选无情况下不传参</t>
-  </si>
-  <si>
-    <t>data[!=][]
-data[list,key]audio&amp;audioList&amp;caseId&amp;checkAddress&amp;checkCondition&amp;checkContent&amp;checkPerson&amp;checkPersonName&amp;checkStatus&amp;checkTime&amp;committeeId&amp;infoSource&amp;infoSourceDesc&amp;isCallPolice&amp;lat&amp;lng&amp;mobile&amp;picture&amp;pictureList&amp;timeLine&amp;vedio&amp;warningGradeDesc&amp;vedioList&amp;warningGrade</t>
   </si>
   <si>
     <t>headers={"Content-Type":"application/json"}
@@ -786,10 +779,7 @@
   </si>
   <si>
     <t>headers={"Content-Type":"application/json"}
-form={"checkCondition":"未发现异常","caseId":"552ca53f4b225e118f4d5dcd46ca5594","isCallPolice":0}</t>
-  </si>
-  <si>
-    <t>True</t>
+form={"caseId": "4408030200000020190097","checkCondition": "测试一下"}</t>
   </si>
   <si>
     <t>upload_attachment</t>
@@ -811,6 +801,9 @@
   </si>
   <si>
     <t>mediatorID=105002J1960043</t>
+  </si>
+  <si>
+    <t>mediatorInfo</t>
   </si>
   <si>
     <t>headers={"Content-Type":"application/json"}
@@ -828,7 +821,7 @@
   </si>
   <si>
     <t>headers={"Content-Type":"application/json"}
-info={"address": "string","area": "string","chargePerson": "string","collectTime": "2018-12-10T02:30:23.731Z","committeeId":"string","committeeName":"string","committeePic": "string","committeeType": "string","createTime": "2018-12-10T02:30:23.731Z","email": "string","faxNumber": "string","fullMediatorCount": 0,"hzCommitteeType": "string","partMediatorCount": 0,"phone": "string","postCode": "string","remark": "string"}</t>
+info=&lt;case1,Res,data&gt;</t>
   </si>
   <si>
     <t>caseId=0440105018000620180057</t>
@@ -850,6 +843,12 @@
     <t>page=int(0)
 size=int(2)
 state=int(1)</t>
+  </si>
+  <si>
+    <t>data[!=][]</t>
+  </si>
+  <si>
+    <t>getCaseList</t>
   </si>
   <si>
     <t>getRoomId</t>
@@ -895,7 +894,7 @@
   </si>
   <si>
     <t>content=test
-mobile=18360863739</t>
+mobile=10086</t>
   </si>
 </sst>
 </file>
@@ -903,12 +902,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,107 +923,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,7 +952,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,7 +1060,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,13 +1075,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,19 +1147,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,115 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,13 +1255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,6 +1266,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1292,15 +1293,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1312,6 +1304,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1336,15 +1337,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1377,148 +1369,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1991,7 +1983,7 @@
         <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2004,13 +1996,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -2040,21 +2032,21 @@
         <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" ht="242.25" spans="1:4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="15" spans="1:4">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="242.25" spans="1:4">
@@ -2062,10 +2054,21 @@
         <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" ht="242.25" spans="1:4">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +2084,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2111,13 +2114,13 @@
         <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" ht="57" spans="1:4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:4">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2125,18 +2128,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" ht="57" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:4">
       <c r="A4" t="s">
         <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2148,13 +2151,13 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="35.375" customWidth="1"/>
@@ -2186,7 +2189,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -2200,7 +2203,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -2211,13 +2214,13 @@
         <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2225,10 +2228,10 @@
         <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="1:5">
@@ -2239,10 +2242,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:5">
@@ -2250,12 +2253,26 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" spans="1:5">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2272,7 +2289,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -2370,7 +2387,7 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
@@ -2747,8 +2764,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3024,8 +3041,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3170,7 +3187,7 @@
       <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3207,7 +3224,7 @@
       <c r="C10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -3283,7 +3300,7 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3542,8 +3559,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3722,17 +3739,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="47.875" customWidth="1"/>
+    <col min="4" max="4" width="61.125" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3764,49 +3781,40 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>121</v>
       </c>
       <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
         <v>107</v>
       </c>
-      <c r="D4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" ht="85.5" spans="1:5">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" ht="213.75" spans="1:5">
+    <row r="6" ht="85.5" spans="1:4">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -3814,49 +3822,55 @@
         <v>105</v>
       </c>
       <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" ht="114" spans="1:4">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="9" ht="57" spans="1:4">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" ht="114" spans="1:4">
-      <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
         <v>165</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>166</v>
-      </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3908,10 +3922,10 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17565" windowHeight="10455" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="20595" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
   <si>
     <t>CaseNum</t>
   </si>
@@ -511,8 +511,11 @@
     <t>checkInfo</t>
   </si>
   <si>
+    <t>audio=&lt;case1,Res,data.path&gt;</t>
+  </si>
+  <si>
     <t>headers={"Content-Type":"application/json"}
-form={"checkContent":"语音消息","infoSource":1,"audio":"mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3","picture":"","mobile":"","checkAddress":"广东省清远市佛冈县"}</t>
+form={"checkContent":"语音消息","infoSource":1,"audio":%audio%,"picture":"","mobile":"","checkAddress":"广东省清远市佛冈县"}</t>
   </si>
   <si>
     <t>queryForPage</t>
@@ -902,10 +905,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -929,6 +932,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -939,42 +956,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,9 +994,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,14 +1048,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1053,14 +1056,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,7 +1078,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,13 +1198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,73 +1216,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,61 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,13 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,6 +1269,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1293,6 +1305,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1304,39 +1336,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,13 +1355,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,10 +1375,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1384,145 +1387,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1844,8 +1844,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1963,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +1999,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2012,7 +2012,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2029,46 +2029,46 @@
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" ht="242.25" spans="1:4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" ht="242.25" spans="1:4">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2094,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2111,35 +2111,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2166,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="3" ht="28.5" spans="1:5">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -2211,69 +2211,69 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
         <v>182</v>
-      </c>
-      <c r="E5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="1:5">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" t="s">
         <v>185</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2301,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2316,63 +2316,63 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" ht="128.25" spans="1:7">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:4">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2387,7 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
@@ -2765,7 +2765,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3041,8 +3041,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3105,8 +3105,11 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
@@ -3120,10 +3123,10 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
@@ -3134,13 +3137,13 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:7">
@@ -3154,7 +3157,7 @@
         <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
         <v>67</v>
@@ -3188,10 +3191,10 @@
         <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
@@ -3225,10 +3228,10 @@
         <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
@@ -3245,7 +3248,7 @@
         <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>94</v>
@@ -3262,13 +3265,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:7">
@@ -3282,10 +3285,10 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3315,7 +3318,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3332,137 +3335,137 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" ht="99.75" spans="1:4">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="99.75" spans="1:4">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:4">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" ht="114" spans="1:4">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" ht="114" spans="1:4">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="114" spans="1:4">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3493,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3507,44 +3510,44 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3562,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3573,7 +3576,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3590,13 +3593,13 @@
     </row>
     <row r="2" ht="28.5" spans="1:5">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -3604,7 +3607,7 @@
     </row>
     <row r="3" ht="42.75" spans="1:5">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -3621,7 +3624,7 @@
     </row>
     <row r="4" ht="42.75" spans="1:5">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -3638,7 +3641,7 @@
     </row>
     <row r="5" ht="42.75" spans="1:5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -3655,7 +3658,7 @@
     </row>
     <row r="6" ht="42.75" spans="1:5">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -3672,7 +3675,7 @@
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -3689,7 +3692,7 @@
     </row>
     <row r="8" ht="28.5" spans="1:5">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3703,13 +3706,13 @@
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
@@ -3717,13 +3720,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
@@ -3742,7 +3745,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3755,7 +3758,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3772,105 +3775,105 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
         <v>157</v>
-      </c>
-      <c r="D4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:4">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" ht="114" spans="1:4">
+    <row r="8" ht="85.5" spans="1:4">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" ht="57" spans="1:4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:4">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="3" t="s">
         <v>164</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3902,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3916,16 +3919,16 @@
     </row>
     <row r="2" ht="42.75" spans="1:4">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20595" windowHeight="12795"/>
+    <workbookView windowWidth="20595" windowHeight="12795" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -905,10 +905,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -933,12 +933,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -961,9 +962,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,39 +1039,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1048,22 +1063,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,7 +1084,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,37 +1120,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,13 +1150,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,13 +1174,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,13 +1204,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,55 +1246,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,24 +1269,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1309,18 +1291,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1340,6 +1320,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1351,6 +1342,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,10 +1375,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,130 +1387,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1844,7 +1844,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1998,8 +1998,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:4">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>173</v>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20595" windowHeight="12795" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="17535" windowHeight="11220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="203">
   <si>
     <t>CaseNum</t>
   </si>
@@ -134,7 +134,8 @@
   <si>
     <t>page=int(0)
 size=int(100)
-state=int(3)</t>
+state=int(3)
+type=int(2)</t>
   </si>
   <si>
     <t>%data%caseId[=]%caseId%
@@ -273,7 +274,8 @@
   <si>
     <t>page=int(0)
 size=int(10)
-state=int(2)</t>
+state=int(2)
+type=int(2)</t>
   </si>
   <si>
     <t>%data%caseId[=]&lt;case1,Res,data.caseId&gt;
@@ -469,6 +471,12 @@
     <t>data[key]caseId</t>
   </si>
   <si>
+    <t>page=int(0)
+size=int(10)
+state=int(2)
+type=int(1)</t>
+  </si>
+  <si>
     <t>%data%caseId[=]&lt;case1,Res,data.caseId&gt;
 %data%applicantIds[=]&lt;case3,Res,data.applicantIds&gt;
 %data%disputeContent[=]%case1_input%disputeContent
@@ -476,6 +484,12 @@
 %data%mediateAddress[=]%case1_input%mediationAddress
 %data%mediationResult[=]&lt;case6,Input,mediationResult,transfer[mediationResult]&gt;
 %data%respondentIds[=]&lt;case5,Res,data.respondentIds&gt;</t>
+  </si>
+  <si>
+    <t>page=int(0)
+size=int(100)
+state=int(3)
+type=int(1)</t>
   </si>
   <si>
     <t>%data%caseId[=]&lt;case9,Input,caseId&gt;
@@ -782,7 +796,7 @@
   </si>
   <si>
     <t>headers={"Content-Type":"application/json"}
-form={"caseId": "4408030200000020190097","checkCondition": "测试一下"}</t>
+form={"caseId": "4401040400000020190027","checkCondition": "测试一下"}</t>
   </si>
   <si>
     <t>upload_attachment</t>
@@ -841,17 +855,23 @@
   </si>
   <si>
     <t>getCaseHandleCount</t>
+  </si>
+  <si>
+    <t>page=int(0)
+size=int(2)
+state=int(1)
+type=int(0)</t>
+  </si>
+  <si>
+    <t>data[!=][]</t>
+  </si>
+  <si>
+    <t>getCaseList</t>
   </si>
   <si>
     <t>page=int(0)
 size=int(2)
 state=int(1)</t>
-  </si>
-  <si>
-    <t>data[!=][]</t>
-  </si>
-  <si>
-    <t>getCaseList</t>
   </si>
   <si>
     <t>getRoomId</t>
@@ -905,10 +925,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -925,8 +945,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,14 +1035,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -955,43 +1042,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1008,62 +1076,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,7 +1098,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,55 +1206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,73 +1230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,7 +1272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,6 +1289,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1283,15 +1327,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,27 +1355,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1355,17 +1379,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,10 +1395,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,133 +1407,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1845,7 +1865,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1963,7 +1983,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1980,10 +2000,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +2018,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -2012,7 +2032,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2029,46 +2049,46 @@
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:4">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" ht="242.25" spans="1:4">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="242.25" spans="1:4">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2114,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2111,35 +2131,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:4">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2174,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2166,7 +2186,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2183,13 +2203,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -2197,13 +2217,13 @@
     </row>
     <row r="3" ht="28.5" spans="1:5">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -2211,69 +2231,69 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
         <v>181</v>
       </c>
-      <c r="D4" t="s">
-        <v>179</v>
-      </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" ht="42.75" spans="1:5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:5">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2321,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2316,63 +2336,63 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" ht="128.25" spans="1:7">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:4">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2387,8 +2407,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2764,8 +2784,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2915,10 +2935,10 @@
         <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:7">
@@ -2969,10 +2989,10 @@
         <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
@@ -2989,7 +3009,7 @@
         <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -3020,13 +3040,13 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3041,8 +3061,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3083,13 +3103,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>67</v>
@@ -3100,16 +3120,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
@@ -3120,13 +3140,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
@@ -3134,16 +3154,16 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:7">
@@ -3157,7 +3177,7 @@
         <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
         <v>67</v>
@@ -3191,10 +3211,10 @@
         <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
@@ -3228,10 +3248,10 @@
         <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
@@ -3248,7 +3268,7 @@
         <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>94</v>
@@ -3265,13 +3285,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:7">
@@ -3285,10 +3305,10 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3338,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3335,137 +3355,137 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" ht="99.75" spans="1:4">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" ht="99.75" spans="1:4">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:4">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="114" spans="1:4">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" ht="114" spans="1:4">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="114" spans="1:4">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3493,7 +3513,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3510,44 +3530,44 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3576,7 +3596,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3593,13 +3613,13 @@
     </row>
     <row r="2" ht="28.5" spans="1:5">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -3607,7 +3627,7 @@
     </row>
     <row r="3" ht="42.75" spans="1:5">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -3624,7 +3644,7 @@
     </row>
     <row r="4" ht="42.75" spans="1:5">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -3641,7 +3661,7 @@
     </row>
     <row r="5" ht="42.75" spans="1:5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -3658,7 +3678,7 @@
     </row>
     <row r="6" ht="42.75" spans="1:5">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -3675,7 +3695,7 @@
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -3692,7 +3712,7 @@
     </row>
     <row r="8" ht="28.5" spans="1:5">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3706,13 +3726,13 @@
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
@@ -3720,13 +3740,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
@@ -3745,7 +3765,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3758,7 +3778,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3775,105 +3795,105 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:4">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="85.5" spans="1:4">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:4">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3902,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3919,16 +3939,16 @@
     </row>
     <row r="2" ht="42.75" spans="1:4">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17535" windowHeight="11220" activeTab="2"/>
+    <workbookView windowWidth="26610" windowHeight="13065" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="203">
   <si>
     <t>CaseNum</t>
   </si>
@@ -268,7 +268,8 @@
     <t>case7</t>
   </si>
   <si>
-    <t>data=&lt;Res,data[list0]&gt;
+    <t>caseId=&lt;case1,Res,data.caseId&gt;
+data=&lt;Res,data[list/caseId@%caseId%]&gt;
 case1_input=&lt;case1,Input,all&gt;</t>
   </si>
   <si>
@@ -292,12 +293,15 @@
     <t>getFullCaseInfo</t>
   </si>
   <si>
+    <t>case7_data=&lt;case7,QuotoSituation,data&gt;</t>
+  </si>
+  <si>
     <t>caseId=&lt;case1,Res,data.caseId&gt;</t>
   </si>
   <si>
     <t>data.applicant[dict_list0,C=]&lt;case3,Input,all&gt;
 data.respondent[dict_list0,C=]&lt;case5,Input,all&gt;
-data.disputeCaseInfo[C=]&lt;case7,Res,data[list0]&gt;</t>
+data.disputeCaseInfo[C=]%case7_data%</t>
   </si>
   <si>
     <t>case9</t>
@@ -361,9 +365,6 @@
     <t>caseId=0440105018000620180119
 type=4
 files=data\代用名身份证.jpg</t>
-  </si>
-  <si>
-    <t>msg[=]文件类型错误</t>
   </si>
   <si>
     <t>case14</t>
@@ -591,7 +592,8 @@
 mediationResult=01</t>
   </si>
   <si>
-    <t>data=&lt;Res,data[list0]&gt;
+    <t>caseId=&lt;case1,Res,data.caseId&gt;
+data=&lt;Res,data[list/caseId@%caseId%]&gt;
 case5_input=&lt;case5,Input,all&gt;</t>
   </si>
   <si>
@@ -605,12 +607,15 @@
 %data%type[=]int(1)</t>
   </si>
   <si>
+    <t>case11_data=&lt;case11,QuotoSituation,data&gt;</t>
+  </si>
+  <si>
     <t>caseId=&lt;case5,Res,data.caseId&gt;</t>
   </si>
   <si>
     <t>data.applicant[dict_list0,C=]&lt;case7,Input,all&gt;
 data.respondent[dict_list0,C=]&lt;case9,Input,all&gt;
-data.disputeCaseInfo[C=]&lt;case11,Res,data[list0]&gt;</t>
+data.disputeCaseInfo[C=]%case11_data%</t>
   </si>
   <si>
     <t>Run</t>
@@ -623,9 +628,6 @@
   </si>
   <si>
     <t>caseId=0440103001000120180040</t>
-  </si>
-  <si>
-    <t>data.applicant.type[dict_list_dict,=]int(1)</t>
   </si>
   <si>
     <t>getParties</t>
@@ -925,10 +927,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -945,40 +947,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,24 +976,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,15 +997,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1050,9 +1036,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,6 +1053,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1082,10 +1083,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1098,19 +1100,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,73 +1262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,67 +1274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,11 +1294,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,65 +1372,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,10 +1397,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1407,133 +1409,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1865,7 +1867,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1983,7 +1985,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2000,7 +2002,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>172</v>
@@ -2032,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2049,7 +2051,7 @@
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>173</v>
@@ -2114,7 +2116,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2131,7 +2133,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>178</v>
@@ -2142,7 +2144,7 @@
     </row>
     <row r="3" ht="28.5" spans="1:4">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -2153,7 +2155,7 @@
     </row>
     <row r="4" ht="28.5" spans="1:4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>166</v>
@@ -2186,7 +2188,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2203,7 +2205,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -2212,26 +2214,26 @@
         <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:5">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>183</v>
@@ -2245,7 +2247,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>185</v>
@@ -2256,7 +2258,7 @@
     </row>
     <row r="6" ht="57" spans="1:5">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2270,7 +2272,7 @@
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>188</v>
@@ -2284,7 +2286,7 @@
     </row>
     <row r="8" ht="42.75" spans="1:5">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>190</v>
@@ -2321,7 +2323,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2344,7 +2346,7 @@
     </row>
     <row r="2" ht="128.25" spans="1:7">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -2367,7 +2369,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>198</v>
@@ -2407,8 +2409,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2574,33 +2576,36 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="57" spans="1:7">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2609,69 +2614,66 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:7">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:6">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2683,7 +2685,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
@@ -2692,10 +2694,10 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" ht="42.75" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="1:6">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2703,16 +2705,13 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" ht="42.75" spans="1:7">
@@ -2723,7 +2722,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
         <v>79</v>
@@ -2732,7 +2731,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:7">
@@ -2749,7 +2748,7 @@
         <v>83</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="71.25" spans="1:7">
@@ -2784,8 +2783,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2833,7 +2832,7 @@
         <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="85.5" spans="1:7">
@@ -2951,33 +2950,36 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="57" spans="1:7">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2986,7 +2988,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>97</v>
@@ -2997,16 +2999,16 @@
     </row>
     <row r="12" ht="28.5" spans="1:7">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>99</v>
@@ -3014,7 +3016,7 @@
     </row>
     <row r="13" ht="28.5" spans="1:7">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -3026,12 +3028,12 @@
         <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="71.25" spans="1:7">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -3061,15 +3063,15 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="41.875" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
     <col min="7" max="7" width="40.75" customWidth="1"/>
     <col min="8" max="8" width="27.875" customWidth="1"/>
@@ -3112,7 +3114,7 @@
         <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:7">
@@ -3132,7 +3134,7 @@
         <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3180,7 +3182,7 @@
         <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="85.5" spans="1:7">
@@ -3239,7 +3241,7 @@
     </row>
     <row r="10" ht="128.25" spans="1:7">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3259,7 +3261,7 @@
     </row>
     <row r="11" ht="28.5" spans="1:7">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -3276,7 +3278,7 @@
     </row>
     <row r="12" ht="199.5" spans="1:7">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -3296,7 +3298,7 @@
     </row>
     <row r="13" ht="42.75" spans="1:7">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -3304,11 +3306,14 @@
       <c r="C13" t="s">
         <v>50</v>
       </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3329,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3338,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3355,32 +3360,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>128</v>
@@ -3391,7 +3394,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -3402,7 +3405,7 @@
     </row>
     <row r="6" ht="99.75" spans="1:4">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -3413,7 +3416,7 @@
     </row>
     <row r="7" ht="99.75" spans="1:4">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -3424,7 +3427,7 @@
     </row>
     <row r="8" ht="28.5" spans="1:4">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>135</v>
@@ -3446,7 +3449,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" ht="114" spans="1:4">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>138</v>
@@ -3468,7 +3471,7 @@
     </row>
     <row r="12" ht="114" spans="1:4">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -3479,7 +3482,7 @@
     </row>
     <row r="13" ht="114" spans="1:4">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -3513,7 +3516,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3530,7 +3533,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>142</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>145</v>
@@ -3558,7 +3561,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>148</v>
@@ -3583,7 +3586,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3596,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3613,7 +3616,7 @@
     </row>
     <row r="2" ht="28.5" spans="1:5">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>151</v>
@@ -3622,49 +3625,46 @@
         <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="42.75" spans="1:5">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:4">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" ht="42.75" spans="1:5">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -3673,15 +3673,15 @@
         <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" ht="42.75" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="1:4">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -3689,16 +3689,13 @@
       <c r="D6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -3707,12 +3704,12 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:5">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3721,12 +3718,12 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -3735,21 +3732,21 @@
         <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3778,7 +3775,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3806,7 +3803,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>158</v>
@@ -3817,7 +3814,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>160</v>
@@ -3828,7 +3825,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>110</v>
@@ -3839,7 +3836,7 @@
     </row>
     <row r="6" ht="85.5" spans="1:4">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
@@ -3853,7 +3850,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>108</v>
@@ -3865,7 +3862,7 @@
     </row>
     <row r="8" ht="85.5" spans="1:4">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -3876,7 +3873,7 @@
     </row>
     <row r="9" ht="28.5" spans="1:4">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>166</v>
@@ -3887,7 +3884,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>168</v>
@@ -3922,7 +3919,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3939,7 +3936,7 @@
     </row>
     <row r="2" ht="42.75" spans="1:4">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26610" windowHeight="13065" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="26610" windowHeight="14100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="205">
   <si>
     <t>CaseNum</t>
   </si>
@@ -134,7 +134,7 @@
   <si>
     <t>page=int(0)
 size=int(100)
-state=int(3)
+state=int(5)
 type=int(2)</t>
   </si>
   <si>
@@ -268,21 +268,20 @@
     <t>case7</t>
   </si>
   <si>
-    <t>caseId=&lt;case1,Res,data.caseId&gt;
-data=&lt;Res,data[list/caseId@%caseId%]&gt;
+    <t>data=&lt;Res,data[list0]&gt;
 case1_input=&lt;case1,Input,all&gt;</t>
   </si>
   <si>
     <t>page=int(0)
 size=int(10)
-state=int(2)
+state=int(5)
 type=int(2)</t>
   </si>
   <si>
     <t>%data%caseId[=]&lt;case1,Res,data.caseId&gt;
 %data%applicantIds[=]&lt;case3,Res,data.applicantIds&gt;
 %data%disputeContent[=]%case1_input%disputeContent
-%data%disputeType[=]%case1_input%disputeType&amp;transfer[disputeType]
+%data%disputeType[=]%case1_input%disputeType
 %data%mediationResult[=]&lt;case6,Input,mediationResult,transfer[mediationResult]&gt;
 %data%respondentIds[=]&lt;case5,Res,data.respondentIds&gt;</t>
   </si>
@@ -311,7 +310,7 @@
   </si>
   <si>
     <t>caseId=&lt;case1,Res,data.caseId&gt;
-state=int(3)</t>
+state=int(5)</t>
   </si>
   <si>
     <t>data[=]修改成功</t>
@@ -320,8 +319,7 @@
     <t>case10</t>
   </si>
   <si>
-    <t>caseId=&lt;case1,Res,data.caseId&gt;
-data=&lt;Res,data[list/caseId@%caseId%]&gt;</t>
+    <t>data=&lt;Res,data[list0]&gt;</t>
   </si>
   <si>
     <t>%data%caseId[=]&lt;case9,Input,caseId&gt;
@@ -413,8 +411,7 @@
     <t>case18</t>
   </si>
   <si>
-    <t>caseId=&lt;case1,Res,data.caseId&gt;
-data=&lt;Res,data[list/caseId@%caseId%]&gt;
+    <t>data=&lt;Res,data[list0]&gt;
 case17_input=&lt;case17,Input,all&gt;</t>
   </si>
   <si>
@@ -472,9 +469,14 @@
     <t>data[key]caseId</t>
   </si>
   <si>
+    <t>caseId=&lt;case1,Res,data.caseId&gt;
+data=&lt;Res,data[list/caseId@%caseId%]&gt;
+case1_input=&lt;case1,Input,all&gt;</t>
+  </si>
+  <si>
     <t>page=int(0)
 size=int(10)
-state=int(2)
+state=int(5)
 type=int(1)</t>
   </si>
   <si>
@@ -487,9 +489,13 @@
 %data%respondentIds[=]&lt;case5,Res,data.respondentIds&gt;</t>
   </si>
   <si>
+    <t>caseId=&lt;case1,Res,data.caseId&gt;
+data=&lt;Res,data[list/caseId@%caseId%]&gt;</t>
+  </si>
+  <si>
     <t>page=int(0)
 size=int(100)
-state=int(3)
+state=int(5)
 type=int(1)</t>
   </si>
   <si>
@@ -502,8 +508,7 @@
     <t>data.mediationAgreement[=]https://booktemplate.aegis-info.com/#/fast?caseId=+&lt;caseId&gt;</t>
   </si>
   <si>
-    <t>caseId=&lt;case1,Res,data.caseId&gt;
-data=&lt;Res,data[list/caseId@%caseId%]&gt;
+    <t>data=&lt;Res,data[list0]&gt;
 case12_input=&lt;case12,Input,all&gt;</t>
   </si>
   <si>
@@ -530,7 +535,7 @@
   </si>
   <si>
     <t>headers={"Content-Type":"application/json"}
-form={"checkContent":"语音消息","infoSource":1,"audio":%audio%,"picture":"","mobile":"","checkAddress":"广东省清远市佛冈县"}</t>
+form={"checkContent":"语音消息","infoSource":1,"audio":%audio%,"picture":"","mobile":"","checkAddress":"广东省广州市海珠区新港街道滨江东路怡宁街17号首层"}</t>
   </si>
   <si>
     <t>queryForPage</t>
@@ -592,7 +597,7 @@
 mediationResult=01</t>
   </si>
   <si>
-    <t>caseId=&lt;case1,Res,data.caseId&gt;
+    <t>caseId=&lt;case5,Res,data.caseId&gt;
 data=&lt;Res,data[list/caseId@%caseId%]&gt;
 case5_input=&lt;case5,Input,all&gt;</t>
   </si>
@@ -927,10 +932,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -947,8 +952,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,7 +975,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,7 +996,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,21 +1050,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1020,32 +1066,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,11 +1081,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1072,22 +1093,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1100,13 +1105,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,43 +1189,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,67 +1213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,19 +1237,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,19 +1267,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,6 +1296,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1333,15 +1347,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1353,6 +1358,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1374,15 +1388,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1397,10 +1402,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1409,133 +1414,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1867,7 +1872,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1985,7 +1990,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2002,10 +2007,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2051,46 +2056,46 @@
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:4">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" ht="242.25" spans="1:4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" ht="242.25" spans="1:4">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2133,35 +2138,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:4">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2193,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2205,13 +2210,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -2219,13 +2224,13 @@
     </row>
     <row r="3" ht="28.5" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -2233,69 +2238,69 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
         <v>183</v>
       </c>
-      <c r="D4" t="s">
-        <v>181</v>
-      </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:5">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
         <v>189</v>
-      </c>
-      <c r="E7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2323,7 +2328,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2338,63 +2343,63 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" ht="128.25" spans="1:7">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:4">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2409,8 +2414,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2783,8 +2788,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2931,13 +2936,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:7">
@@ -2988,13 +2993,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
@@ -3011,7 +3016,7 @@
         <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -3042,13 +3047,13 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3063,8 +3068,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3105,13 +3110,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -3122,16 +3127,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -3142,13 +3147,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
@@ -3156,16 +3161,16 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:7">
@@ -3179,7 +3184,7 @@
         <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
         <v>68</v>
@@ -3213,10 +3218,10 @@
         <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
@@ -3250,10 +3255,10 @@
         <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
@@ -3270,7 +3275,7 @@
         <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>94</v>
@@ -3287,13 +3292,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:7">
@@ -3307,13 +3312,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3360,135 +3365,135 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" ht="99.75" spans="1:4">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" ht="99.75" spans="1:4">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:4">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" ht="114" spans="1:4">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" ht="114" spans="1:4">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="114" spans="1:4">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3516,7 +3521,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3533,44 +3538,44 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3604,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3616,13 +3621,13 @@
     </row>
     <row r="2" ht="28.5" spans="1:5">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
@@ -3630,7 +3635,7 @@
     </row>
     <row r="3" ht="42.75" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -3647,7 +3652,7 @@
     </row>
     <row r="4" ht="42.75" spans="1:4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -3661,7 +3666,7 @@
     </row>
     <row r="5" ht="42.75" spans="1:5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -3678,7 +3683,7 @@
     </row>
     <row r="6" ht="42.75" spans="1:4">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -3692,7 +3697,7 @@
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -3709,7 +3714,7 @@
     </row>
     <row r="8" ht="28.5" spans="1:5">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3723,13 +3728,13 @@
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -3737,13 +3742,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
         <v>68</v>
@@ -3775,7 +3780,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3792,105 +3797,105 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:4">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="85.5" spans="1:4">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:4">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3919,7 +3924,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3936,16 +3941,16 @@
     </row>
     <row r="2" ht="42.75" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26610" windowHeight="14100" activeTab="3"/>
+    <workbookView windowWidth="26610" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="206">
   <si>
     <t>CaseNum</t>
   </si>
@@ -134,7 +134,7 @@
   <si>
     <t>page=int(0)
 size=int(100)
-state=int(5)
+state=int(7)
 type=int(2)</t>
   </si>
   <si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>data=&lt;Res,data[list0]&gt;</t>
+  </si>
+  <si>
+    <t>page=int(0)
+size=int(100)
+state=int(5)
+type=int(2)</t>
   </si>
   <si>
     <t>%data%caseId[=]&lt;case9,Input,caseId&gt;
@@ -952,6 +958,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -961,7 +991,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,8 +1011,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,39 +1043,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,15 +1067,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,24 +1080,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,19 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,13 +1129,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,133 +1285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,6 +1310,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,39 +1359,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1388,6 +1376,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1396,16 +1393,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1414,19 +1420,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1435,112 +1441,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1871,8 +1877,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1990,7 +1996,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2007,10 +2013,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2045,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2056,46 +2062,46 @@
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:4">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" ht="242.25" spans="1:4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" ht="242.25" spans="1:4">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2138,35 +2144,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:4">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2199,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2210,13 +2216,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -2224,13 +2230,13 @@
     </row>
     <row r="3" ht="28.5" spans="1:5">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -2238,69 +2244,69 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" t="s">
         <v>187</v>
-      </c>
-      <c r="E5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:5">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" t="s">
         <v>190</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2328,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2343,63 +2349,63 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" ht="128.25" spans="1:7">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:4">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2622,135 +2628,135 @@
         <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:7">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" ht="42.75" spans="1:6">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="42.75" spans="1:7">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="42.75" spans="1:6">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="42.75" spans="1:7">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:7">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>57</v>
@@ -2758,7 +2764,7 @@
     </row>
     <row r="19" ht="71.25" spans="1:7">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2767,13 +2773,13 @@
         <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2831,13 +2837,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="85.5" spans="1:7">
@@ -2865,10 +2871,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>34</v>
@@ -2899,10 +2905,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
@@ -2916,13 +2922,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="99.75" spans="1:7">
@@ -2936,13 +2942,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:7">
@@ -2993,44 +2999,44 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>57</v>
@@ -3038,7 +3044,7 @@
     </row>
     <row r="14" ht="71.25" spans="1:7">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -3047,13 +3053,13 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3068,7 +3074,7 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3110,16 +3116,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:7">
@@ -3127,19 +3133,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3147,13 +3153,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
@@ -3161,16 +3167,16 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:7">
@@ -3181,13 +3187,13 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="85.5" spans="1:7">
@@ -3215,13 +3221,13 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
@@ -3252,13 +3258,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
@@ -3272,18 +3278,18 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="199.5" spans="1:7">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -3292,18 +3298,18 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:7">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -3312,13 +3318,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3354,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3365,135 +3371,135 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" ht="99.75" spans="1:4">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="99.75" spans="1:4">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:4">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" ht="114" spans="1:4">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" ht="114" spans="1:4">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="114" spans="1:4">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3521,7 +3527,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3538,44 +3544,44 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3610,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3621,100 +3627,100 @@
     </row>
     <row r="2" ht="28.5" spans="1:5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="42.75" spans="1:5">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="1:4">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:5">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3723,35 +3729,35 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3780,7 +3786,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3797,105 +3803,105 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
         <v>162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:4">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="85.5" spans="1:4">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:4">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3924,7 +3930,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3941,16 +3947,16 @@
     </row>
     <row r="2" ht="42.75" spans="1:4">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26610" windowHeight="14100"/>
+    <workbookView windowWidth="27165" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="207">
   <si>
     <t>CaseNum</t>
   </si>
@@ -158,7 +158,7 @@
     <t>written/saveCaseInfo</t>
   </si>
   <si>
-    <t>committeeId=4401030010001
+    <t>committeeId=44010505000266
 mediatorId=105002J1960043
 acceptDate=2018-12-14
 casePrediction=01
@@ -431,10 +431,10 @@
     <t>quick/saveCaseInfo</t>
   </si>
   <si>
-    <t>committeeId=4401030010001
+    <t>committeeId=44010505000266
 disputeContent=111
 disputeType=14
-mediationAddress=广东省清远市佛冈县高岗镇高镇村(近829县道)
+mediationAddress=广东省广州市海珠区新港街道滨江东路
 mediationDate=2018-12-14</t>
   </si>
   <si>
@@ -560,7 +560,10 @@
 data.caseId[=]&lt;caseCheckID&gt;</t>
   </si>
   <si>
-    <t>committeeId=4401030010001
+    <t>committeeId=&lt;case2,Res,data.committeeId&gt;</t>
+  </si>
+  <si>
+    <t>committeeId=%committeeId%
 disputeContent=111
 disputeType=17
 mediationAddress=&lt;case4,Res,data.checkAddress&gt;
@@ -632,7 +635,7 @@
     <t>Run</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>N</t>
   </si>
   <si>
     <t>getCaseInfo</t>
@@ -725,6 +728,9 @@
 protocolDate=2018-11-23</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>similarInfo</t>
   </si>
   <si>
@@ -764,9 +770,6 @@
   </si>
   <si>
     <t>caseId=0440105018000620180119</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>convertToQuickDispute</t>
@@ -958,19 +961,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -979,51 +974,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1041,9 +991,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,10 +1068,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1074,29 +1092,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,7 +1114,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,49 +1174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,7 +1198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,19 +1216,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,79 +1282,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,21 +1318,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1340,6 +1328,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1359,6 +1356,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1374,11 +1380,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,25 +1405,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1420,133 +1423,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1878,7 +1881,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1996,7 +1999,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2013,10 +2016,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2048,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2062,46 +2065,46 @@
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:4">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" ht="242.25" spans="1:4">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" ht="242.25" spans="1:4">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2144,35 +2147,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:4">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2202,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2216,13 +2219,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -2230,13 +2233,13 @@
     </row>
     <row r="3" ht="28.5" spans="1:5">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -2244,69 +2247,69 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
         <v>188</v>
-      </c>
-      <c r="E5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:5">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
         <v>191</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2337,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2349,63 +2352,63 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" ht="128.25" spans="1:7">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:4">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2421,7 +2424,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2794,8 +2797,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3189,8 +3192,11 @@
       <c r="C6" t="s">
         <v>88</v>
       </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
         <v>69</v>
@@ -3224,10 +3230,10 @@
         <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
@@ -3261,10 +3267,10 @@
         <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
@@ -3281,7 +3287,7 @@
         <v>93</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>95</v>
@@ -3298,13 +3304,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:7">
@@ -3318,13 +3324,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3340,7 +3346,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3354,7 +3360,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3371,135 +3377,135 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" ht="99.75" spans="1:4">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" ht="99.75" spans="1:4">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:4">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" ht="114" spans="1:4">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" ht="114" spans="1:4">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="114" spans="1:4">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3533,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3544,44 +3550,44 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3610,7 +3616,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3627,13 +3633,13 @@
     </row>
     <row r="2" ht="28.5" spans="1:5">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -3641,7 +3647,7 @@
     </row>
     <row r="3" ht="42.75" spans="1:5">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -3658,7 +3664,7 @@
     </row>
     <row r="4" ht="42.75" spans="1:4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -3672,7 +3678,7 @@
     </row>
     <row r="5" ht="42.75" spans="1:5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -3689,7 +3695,7 @@
     </row>
     <row r="6" ht="42.75" spans="1:4">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -3703,7 +3709,7 @@
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -3720,7 +3726,7 @@
     </row>
     <row r="8" ht="28.5" spans="1:5">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3734,13 +3740,13 @@
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
@@ -3748,13 +3754,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
         <v>69</v>
@@ -3786,7 +3792,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3803,105 +3809,105 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
         <v>163</v>
-      </c>
-      <c r="D4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:4">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="85.5" spans="1:4">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:4">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3930,7 +3936,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3947,16 +3953,16 @@
     </row>
     <row r="2" ht="42.75" spans="1:4">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27165" windowHeight="13065"/>
+    <workbookView windowWidth="17760" windowHeight="11820" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="208">
   <si>
     <t>CaseNum</t>
   </si>
@@ -357,9 +357,6 @@
 files=data\人民调解调查记录.jpg</t>
   </si>
   <si>
-    <t>code[=]int(200)</t>
-  </si>
-  <si>
     <t>case13</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
     <t>caseId=0440105018000620180119
 type=7
 files=data\人民调解回访记录.jpg</t>
+  </si>
+  <si>
+    <t>code[=]int(200)</t>
   </si>
   <si>
     <t>case15</t>
@@ -482,7 +482,7 @@
   <si>
     <t>page=int(0)
 size=int(10)
-state=int(5)
+state=int(6)
 type=int(1)</t>
   </si>
   <si>
@@ -609,6 +609,12 @@
     <t>caseId=&lt;case5,Res,data.caseId&gt;
 data=&lt;Res,data[list/caseId@%caseId%]&gt;
 case5_input=&lt;case5,Input,all&gt;</t>
+  </si>
+  <si>
+    <t>page=int(0)
+size=int(10)
+state=int(5)
+type=int(1)</t>
   </si>
   <si>
     <t>%data%caseId[=]&lt;case5,Res,data.caseId&gt;
@@ -963,14 +969,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -978,7 +998,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,16 +1018,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,8 +1042,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,7 +1066,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1045,23 +1074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,7 +1090,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,13 +1099,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,13 +1120,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,55 +1180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,13 +1210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,7 +1228,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,31 +1258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,19 +1276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,11 +1314,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1335,8 +1347,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1359,8 +1380,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,21 +1401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1411,145 +1417,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,7 +1886,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1999,7 +2005,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2016,10 +2022,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2054,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2065,46 +2071,46 @@
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:4">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" ht="242.25" spans="1:4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" ht="242.25" spans="1:4">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2136,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2147,35 +2153,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:4">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2202,7 +2208,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2219,13 +2225,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -2233,13 +2239,13 @@
     </row>
     <row r="3" ht="28.5" spans="1:5">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -2247,69 +2253,69 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" t="s">
         <v>189</v>
-      </c>
-      <c r="E5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:5">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s">
         <v>192</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2343,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2352,63 +2358,63 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" ht="128.25" spans="1:7">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:4">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2423,8 +2429,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2654,7 +2660,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="42.75" spans="1:7">
+    <row r="13" ht="42.75" spans="1:6">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2670,13 +2676,10 @@
       <c r="F13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="14" ht="42.75" spans="1:6">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2685,15 +2688,15 @@
         <v>66</v>
       </c>
       <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" ht="42.75" spans="1:7">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2702,13 +2705,13 @@
         <v>66</v>
       </c>
       <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" t="s">
         <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" ht="42.75" spans="1:6">
@@ -2745,7 +2748,7 @@
         <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:7">
@@ -2797,8 +2800,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2846,7 +2849,7 @@
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="85.5" spans="1:7">
@@ -3047,7 +3050,7 @@
     </row>
     <row r="14" ht="71.25" spans="1:7">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -3077,7 +3080,7 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3128,7 +3131,7 @@
         <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:7">
@@ -3148,7 +3151,7 @@
         <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3199,7 +3202,7 @@
         <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="85.5" spans="1:7">
@@ -3307,10 +3310,10 @@
         <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:7">
@@ -3324,13 +3327,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3377,135 +3380,135 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" ht="99.75" spans="1:4">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" ht="99.75" spans="1:4">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:4">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" ht="114" spans="1:4">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" ht="114" spans="1:4">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="114" spans="1:4">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3533,7 +3536,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3550,44 +3553,44 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3606,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3616,7 +3619,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3633,21 +3636,21 @@
     </row>
     <row r="2" ht="28.5" spans="1:5">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:4">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -3658,44 +3661,41 @@
       <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="4" ht="42.75" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
         <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="1:4">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="7" ht="42.75" spans="1:5">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -3721,12 +3721,12 @@
         <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:5">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3735,35 +3735,35 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3792,7 +3792,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3809,105 +3809,105 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>164</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:4">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="85.5" spans="1:4">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:4">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3936,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3953,16 +3953,16 @@
     </row>
     <row r="2" ht="42.75" spans="1:4">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17760" windowHeight="11820" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="12165" windowHeight="11820" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -79,13 +79,12 @@
 %applicantList%sex[=]int(1)
 %applicantList%sexStr[=]男性
 %disputeCaseInfo%disputeContent[=]2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。
-%disputeCaseInfo%mediateDate[=]int(1516809600000)
+%disputeCaseInfo%mediateDate[=]2018-01-25 00:00:00
 %disputeCaseInfo%protocolContent[contains]张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用
 %respondentList%partyNum[=]int(1)
 %respondentList%age[=]int(39)
 %respondentList%nation[=]int(1)
 %respondentList%nationStr[=]汉族
-%respondentList%partyAddress[=]北京市月光小区21栋304室
 %respondentList%partyName[=]张兵
 %respondentList%partyPhone[=]18052063223
 %respondentList%partyType[=]01
@@ -752,7 +751,7 @@
     <t>code=9</t>
   </si>
   <si>
-    <t>data.id[=]a4f241e1f5c1e9872f80ccb08a8d3576</t>
+    <t>data.lawId[=]a4f241e1f5c1e9872f80ccb08a8d3576</t>
   </si>
   <si>
     <t>strategy</t>
@@ -947,8 +946,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -967,25 +966,48 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,15 +1019,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,9 +1034,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,16 +1058,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,7 +1074,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1080,17 +1088,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,14 +1104,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1120,7 +1119,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,37 +1233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,91 +1245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,7 +1257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,19 +1275,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,41 +1313,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,11 +1374,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,10 +1416,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1429,16 +1428,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1447,115 +1446,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1886,8 +1885,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -2429,7 +2428,7 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3523,8 +3522,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12165" windowHeight="11820" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="12165" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -1885,8 +1885,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -3522,8 +3522,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12165" windowHeight="11820"/>
+    <workbookView windowWidth="21240" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="207">
   <si>
     <t>CaseNum</t>
   </si>
@@ -884,15 +884,15 @@
 type=int(0)</t>
   </si>
   <si>
-    <t>data[!=][]</t>
-  </si>
-  <si>
     <t>getCaseList</t>
   </si>
   <si>
     <t>page=int(0)
 size=int(2)
-state=int(1)</t>
+state=int(1)
+type=int(0)
+committeeId=32011401000000
+mediatorId=320114Z20190003</t>
   </si>
   <si>
     <t>getRoomId</t>
@@ -967,6 +967,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -980,9 +987,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,7 +1003,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,77 +1018,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,6 +1046,69 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1119,7 +1119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,13 +1131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,7 +1161,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,133 +1299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,26 +1310,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1352,31 +1332,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,151 +1366,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -2195,7 +2195,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2275,7 +2275,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" ht="57" spans="1:5">
+    <row r="6" ht="57" spans="1:4">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -2285,22 +2285,16 @@
       <c r="D6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" ht="42.75" spans="1:5">
+    </row>
+    <row r="7" ht="85.5" spans="1:4">
       <c r="A7" t="s">
         <v>147</v>
       </c>
       <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -2308,13 +2302,13 @@
         <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>186</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2357,10 +2351,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" t="s">
         <v>197</v>
-      </c>
-      <c r="G1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" ht="128.25" spans="1:7">
@@ -2371,19 +2365,19 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
         <v>200</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>201</v>
-      </c>
-      <c r="G2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2391,10 +2385,10 @@
         <v>147</v>
       </c>
       <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
         <v>203</v>
-      </c>
-      <c r="E3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2402,7 +2396,7 @@
         <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:4">
@@ -2410,10 +2404,10 @@
         <v>130</v>
       </c>
       <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3605,7 +3599,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3725,7 +3719,7 @@
     </row>
     <row r="8" ht="28.5" spans="1:5">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12195"/>
+    <workbookView windowWidth="21480" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -65,7 +65,7 @@
   </si>
   <si>
     <t>files=data\调解协议书.jpg
-mediatorId=105002J1960043</t>
+mediatorId=320114Z20190003</t>
   </si>
   <si>
     <t>code[=]int(200)
@@ -80,7 +80,7 @@
 %applicantList%sexStr[=]男性
 %disputeCaseInfo%disputeContent[=]2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。
 %disputeCaseInfo%mediateDate[=]2018-01-25 00:00:00
-%disputeCaseInfo%protocolContent[contains]张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用
+%disputeCaseInfo%protocolContent[contains]张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费
 %respondentList%partyNum[=]int(1)
 %respondentList%age[=]int(39)
 %respondentList%nation[=]int(1)
@@ -165,7 +165,8 @@
 difficultyLevel=02
 disputeContent=纠纷事实111
 disputeDate=2018-12-14
-disputeType=1</t>
+disputeType=1
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>code[=]int(200)
@@ -204,7 +205,8 @@
 nation=&lt;case2,Res,data.nation,transfer[nation]&gt;
 partyAddress=&lt;case2,Res,data.address&gt;
 partyNum=int(1)
-type=int(1)</t>
+type=int(1)
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>data[key]applicantIds</t>
@@ -238,7 +240,8 @@
 nation=&lt;case4,Res,data.nation,transfer[nation]&gt;
 partyAddress=&lt;case4,Res,data.address&gt;
 partyNum=int(1)
-type=int(2)</t>
+type=int(2)
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>data[key]respondentIds</t>
@@ -434,7 +437,8 @@
 disputeContent=111
 disputeType=14
 mediationAddress=广东省广州市海珠区新港街道滨江东路
-mediationDate=2018-12-14</t>
+mediationDate=2018-12-14
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>quick/saveNatural</t>
@@ -450,7 +454,8 @@
 age=&lt;case2,Res,data.age&gt;
 nation=&lt;case2,Res,data.nation,transfer[nation]&gt;
 partyAddress=&lt;case2,Res,data.address&gt;
-type=int(1)</t>
+type=int(1)
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>caseId=&lt;case1,Res,data.caseId&gt;
@@ -461,7 +466,8 @@
 imgUrl=http://case.img.aegis-info.com/+&lt;case4,Res,data.paths[dict_list0]&gt;
 nation=&lt;case4,Res,data.nation,transfer[nation]&gt;
 partyAddress=&lt;case4,Res,data.address&gt;
-type=int(2)</t>
+type=int(2)
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>quick/saveResult</t>
@@ -566,7 +572,8 @@
 disputeContent=111
 disputeType=17
 mediationAddress=&lt;case4,Res,data.checkAddress&gt;
-mediationDate=2018-12-13</t>
+mediationDate=2018-12-13
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>case6_data=&lt;case6,Res,data&gt;
@@ -583,7 +590,8 @@
 age=%case6_data%age
 nation=%case6_data%nation&amp;transfer[nation]
 partyAddress=%case6_data%address
-type=int(1)</t>
+type=int(1)
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>case8_data=&lt;case8,Res,data&gt;
@@ -598,7 +606,8 @@
 imgUrl=http://case.img.aegis-info.com/+%path%
 nation=%case8_data%nation&amp;transfer[nation]
 partyAddress=%case8_data%address
-type=int(2)</t>
+type=int(2)
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>caseId=&lt;case5,Res,data.caseId&gt;
@@ -678,7 +687,8 @@
 partyIDType=111
 partyName=lily
 partyType=02
-type=int(1)</t>
+type=int(1)
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>caseId=0440103001000120180041
@@ -698,7 +708,8 @@
 difficultyLevel=01
 disputeContent=balabala…
 disputeType=01
-mediatorId=105002J1960043</t>
+mediatorId=105002J1960043
+casePlatform=int(1)</t>
   </si>
   <si>
     <t>written/saveCompany</t>
@@ -967,7 +978,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,45 +1039,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,21 +1047,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,22 +1067,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1086,9 +1075,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,8 +1091,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,7 +1130,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,97 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,13 +1226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,13 +1244,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,7 +1268,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,19 +1310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,6 +1321,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1331,45 +1366,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1380,7 +1376,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,16 +1406,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1428,142 +1439,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1885,8 +1899,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -2422,8 +2436,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2491,7 +2505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="199.5" spans="1:7">
+    <row r="4" ht="213.75" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2525,7 +2539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" ht="185.25" spans="1:7">
+    <row r="6" ht="199.5" spans="1:7">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2794,7 +2808,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2828,7 +2842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="85.5" spans="1:7">
+    <row r="2" ht="99.75" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2862,7 +2876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="185.25" spans="1:7">
+    <row r="4" ht="199.5" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2896,7 +2910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" ht="156.75" spans="1:7">
+    <row r="6" ht="171" spans="1:7">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3073,8 +3087,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3178,7 +3192,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="71.25" spans="1:7">
+    <row r="6" ht="85.5" spans="1:7">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3215,7 +3229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="156.75" spans="1:7">
+    <row r="8" ht="171" spans="1:7">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -3252,7 +3266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="128.25" spans="1:7">
+    <row r="10" ht="142.5" spans="1:7">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3342,7 +3356,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3427,7 +3441,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" ht="99.75" spans="1:4">
+    <row r="7" ht="114" spans="1:4">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3460,14 +3474,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="128.25" spans="1:4">
       <c r="A10" t="s">
         <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3517,7 +3531,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -3599,7 +3613,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>

--- a/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/server/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -147,7 +147,6 @@
 %data%protocolContent[=]%disputeCaseInfo%protocolContent
 %data%inputState[=]int(1)
 %data%docAll[=]int(8)
-%data%docCount[=]int(4)
 %data%type[=]int(2)</t>
   </si>
   <si>
@@ -957,9 +956,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -984,11 +983,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1010,6 +1076,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1017,7 +1091,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,90 +1114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,6 +1126,132 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1142,19 +1267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,103 +1285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,37 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,41 +1323,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,6 +1356,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1392,17 +1397,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1427,10 +1426,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1439,145 +1438,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1900,7 +1896,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1973,7 +1969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="171" spans="1:7">
+    <row r="4" ht="156.75" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3481,7 +3477,7 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>142</v>
       </c>
     </row>
